--- a/KH_HUE_T07_DatabaseDesign_v2.0.xlsx
+++ b/KH_HUE_T07_DatabaseDesign_v2.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="67">
   <si>
     <t>PHIENDAUGIA</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Khóa chính</t>
   </si>
   <si>
-    <t>Char</t>
-  </si>
-  <si>
     <t>Text</t>
   </si>
   <si>
@@ -215,6 +212,9 @@
   </si>
   <si>
     <t>Double</t>
+  </si>
+  <si>
+    <t>Varchar</t>
   </si>
 </sst>
 </file>
@@ -300,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -308,6 +308,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,15 +332,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>695326</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -347,8 +349,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3867150" y="647700"/>
-          <a:ext cx="1400175" cy="3286125"/>
+          <a:off x="4019550" y="647700"/>
+          <a:ext cx="1485901" cy="3067050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -377,14 +379,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -393,9 +395,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1514475" y="1009650"/>
-          <a:ext cx="676275" cy="1971675"/>
+        <a:xfrm>
+          <a:off x="1838326" y="676275"/>
+          <a:ext cx="1181099" cy="3257550"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -490,6 +492,53 @@
         <a:xfrm>
           <a:off x="1514475" y="666750"/>
           <a:ext cx="1143000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1724026" y="647700"/>
+          <a:ext cx="3790949" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -805,25 +854,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G63"/>
+  <dimension ref="B2:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -853,18 +903,18 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>13</v>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>18</v>
@@ -872,7 +922,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>19</v>
@@ -880,7 +930,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>20</v>
@@ -888,7 +938,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>21</v>
@@ -896,7 +946,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>23</v>
@@ -904,7 +954,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>22</v>
@@ -912,7 +962,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>24</v>
@@ -920,47 +970,50 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>10</v>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="3" t="s">
-        <v>11</v>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D16" s="2" t="s">
-        <v>13</v>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="1" t="s">
-        <v>10</v>
+      <c r="D20" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D21" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -993,7 +1046,7 @@
         <v>31</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E25" s="1">
         <v>10</v>
@@ -1007,136 +1060,143 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>13</v>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="1">
-        <v>10</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>9</v>
+      <c r="B35" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="E35" s="1">
+        <v>10</v>
+      </c>
       <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -1161,10 +1221,10 @@
         <v>13</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E39" s="1">
         <v>10</v>
@@ -1178,10 +1238,10 @@
         <v>14</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1191,10 +1251,10 @@
         <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1204,10 +1264,10 @@
         <v>6</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1217,10 +1277,10 @@
         <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1230,209 +1290,214 @@
         <v>16</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E44" s="1">
         <v>10</v>
       </c>
       <c r="F44" s="1"/>
     </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="1">
+        <v>10</v>
+      </c>
+      <c r="F45" s="1"/>
+    </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>50</v>
-      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E48" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F48" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" s="1">
+      <c r="C49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="1">
         <v>10</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E54" s="1">
-        <v>12</v>
-      </c>
+      <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E55" s="1"/>
+      <c r="E55" s="1">
+        <v>12</v>
+      </c>
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>63</v>
-      </c>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="6" t="s">
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C60" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D60" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E60" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F60" s="6" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E60" s="1">
-        <v>10</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E61" s="1">
         <v>10</v>
@@ -1442,34 +1507,51 @@
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>61</v>
+      <c r="B62" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="E62" s="1">
+        <v>10</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>